--- a/raw_data/KEEN ONE/Byrnes/2014/NW Shoals Entry 2014/NW Shoals Site Information 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/NW Shoals Entry 2014/NW Shoals Site Information 2014.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="220" windowWidth="25600" windowHeight="16060"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Date Sampled</t>
   </si>
@@ -60,54 +60,12 @@
     <t>NW Appledore</t>
   </si>
   <si>
-    <t>9.1 m</t>
-  </si>
-  <si>
-    <t>9.6 m</t>
-  </si>
-  <si>
-    <t>4 m</t>
-  </si>
-  <si>
-    <t>50 F</t>
-  </si>
-  <si>
     <t>North Head/ Kelp (w/ Dewl's DF)</t>
   </si>
   <si>
-    <t>6.3 m</t>
-  </si>
-  <si>
-    <t>6.7 m</t>
-  </si>
-  <si>
-    <t>2.5 m</t>
-  </si>
-  <si>
     <t>Magic S Ball/ Kelp (by self)</t>
   </si>
   <si>
-    <t>11.4 m</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>54 F</t>
-  </si>
-  <si>
-    <t>9.4 m</t>
-  </si>
-  <si>
-    <t>4.5 m</t>
-  </si>
-  <si>
-    <t>3 m</t>
-  </si>
-  <si>
-    <t>55 F</t>
-  </si>
-  <si>
     <t>not actual GPS point - original point for choosing location  Sand Piper Beach (w/ Larus Ledge)</t>
   </si>
   <si>
@@ -136,6 +94,15 @@
   </si>
   <si>
     <t>Sandpiper Beach</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -183,8 +150,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -229,7 +198,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -246,6 +215,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -262,6 +232,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -670,249 +641,296 @@
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H2" s="4">
         <v>41841</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>42.993015982000003</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>-70.615435977999994</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>42.992833005000001</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-70.615848033000006</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2">
+        <v>9.1</v>
+      </c>
+      <c r="N2">
+        <v>9.6</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="4">
         <v>41841</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>42.991409003999998</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-70.617746030999996</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>42.991715026999998</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-70.617419975000004</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M3">
+        <v>6.3</v>
+      </c>
+      <c r="N3">
+        <v>6.7</v>
+      </c>
+      <c r="O3">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H4" s="4">
         <v>41838</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42.991161988999998</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>-70.618240982000003</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="2">
         <v>42.991544036000001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>-70.618120031000004</v>
       </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
+        <v>11.4</v>
+      </c>
+      <c r="N4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H5" s="4">
         <v>41838</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>42.990119999999997</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-70.617828000000003</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5">
+        <v>9.4</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>12.5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
@@ -954,16 +972,22 @@
     <row r="29" spans="1:1">
       <c r="A29"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:7">
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="4:7">
       <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74:I1048576">
       <formula1>" IN 20, IN 40, OFF 40, OFF 20"</formula1>
     </dataValidation>
   </dataValidations>
